--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C97EBF-D3D4-4980-9D87-7CF9A2B53859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFF28A-3C9E-4CDE-9FC7-20DBA22DE607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1565">
   <si>
     <t>title</t>
   </si>
@@ -4725,6 +4725,9 @@
   </si>
   <si>
     <t>251</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -5042,15 +5045,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:F484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5064,10 +5067,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5083,8 +5089,11 @@
       <c r="E2" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5100,8 +5109,11 @@
       <c r="E3" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5117,8 +5129,11 @@
       <c r="E4" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5134,8 +5149,11 @@
       <c r="E5" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5151,8 +5169,11 @@
       <c r="E6" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5168,8 +5189,11 @@
       <c r="E7" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5185,8 +5209,11 @@
       <c r="E8" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -5202,8 +5229,11 @@
       <c r="E9" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5219,8 +5249,11 @@
       <c r="E10" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>673</v>
       </c>
@@ -5236,8 +5269,11 @@
       <c r="E11" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5253,8 +5289,11 @@
       <c r="E12" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5270,8 +5309,11 @@
       <c r="E13" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5287,8 +5329,11 @@
       <c r="E14" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -5304,8 +5349,11 @@
       <c r="E15" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -5321,8 +5369,11 @@
       <c r="E16" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -5338,8 +5389,11 @@
       <c r="E17" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -5355,8 +5409,11 @@
       <c r="E18" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -5372,8 +5429,11 @@
       <c r="E19" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -5389,8 +5449,11 @@
       <c r="E20" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -5406,8 +5469,11 @@
       <c r="E21" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>687</v>
       </c>
@@ -5423,8 +5489,11 @@
       <c r="E22" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>689</v>
       </c>
@@ -5440,8 +5509,11 @@
       <c r="E23" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5457,8 +5529,11 @@
       <c r="E24" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5474,8 +5549,11 @@
       <c r="E25" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5491,8 +5569,11 @@
       <c r="E26" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -5508,8 +5589,11 @@
       <c r="E27" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5525,8 +5609,11 @@
       <c r="E28" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -5542,8 +5629,11 @@
       <c r="E29" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -5559,8 +5649,11 @@
       <c r="E30" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -5576,8 +5669,11 @@
       <c r="E31" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -5593,8 +5689,11 @@
       <c r="E32" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -5610,8 +5709,11 @@
       <c r="E33" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -5627,8 +5729,11 @@
       <c r="E34" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -5644,8 +5749,11 @@
       <c r="E35" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -5661,8 +5769,11 @@
       <c r="E36" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -5678,8 +5789,11 @@
       <c r="E37" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -5695,8 +5809,11 @@
       <c r="E38" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -5712,8 +5829,11 @@
       <c r="E39" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -5729,8 +5849,11 @@
       <c r="E40" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5746,8 +5869,11 @@
       <c r="E41" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -5763,8 +5889,11 @@
       <c r="E42" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -5780,8 +5909,11 @@
       <c r="E43" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -5797,8 +5929,11 @@
       <c r="E44" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -5814,8 +5949,11 @@
       <c r="E45" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5831,8 +5969,11 @@
       <c r="E46" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -5848,8 +5989,11 @@
       <c r="E47" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -5865,8 +6009,11 @@
       <c r="E48" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -5882,8 +6029,11 @@
       <c r="E49" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -5899,8 +6049,11 @@
       <c r="E50" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -5916,8 +6069,11 @@
       <c r="E51" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -5933,8 +6089,11 @@
       <c r="E52" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5950,8 +6109,11 @@
       <c r="E53" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5967,8 +6129,11 @@
       <c r="E54" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5984,8 +6149,11 @@
       <c r="E55" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6001,8 +6169,11 @@
       <c r="E56" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -6018,8 +6189,11 @@
       <c r="E57" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -6035,8 +6209,11 @@
       <c r="E58" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -6052,8 +6229,11 @@
       <c r="E59" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6069,8 +6249,11 @@
       <c r="E60" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -6086,8 +6269,11 @@
       <c r="E61" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -6103,8 +6289,11 @@
       <c r="E62" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -6120,8 +6309,11 @@
       <c r="E63" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -6137,8 +6329,11 @@
       <c r="E64" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -6154,8 +6349,11 @@
       <c r="E65" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -6171,8 +6369,11 @@
       <c r="E66" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -6188,8 +6389,11 @@
       <c r="E67" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -6205,8 +6409,11 @@
       <c r="E68" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -6222,8 +6429,11 @@
       <c r="E69" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -6239,8 +6449,11 @@
       <c r="E70" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -6256,8 +6469,11 @@
       <c r="E71" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -6273,8 +6489,11 @@
       <c r="E72" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -6290,8 +6509,11 @@
       <c r="E73" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -6307,8 +6529,11 @@
       <c r="E74" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -6324,8 +6549,11 @@
       <c r="E75" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -6341,8 +6569,11 @@
       <c r="E76" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -6358,8 +6589,11 @@
       <c r="E77" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -6375,8 +6609,11 @@
       <c r="E78" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="E79" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>150</v>
       </c>
@@ -6409,8 +6649,11 @@
       <c r="E80" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -6426,8 +6669,11 @@
       <c r="E81" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6443,8 +6689,11 @@
       <c r="E82" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -6460,8 +6709,11 @@
       <c r="E83" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -6477,8 +6729,11 @@
       <c r="E84" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -6494,8 +6749,11 @@
       <c r="E85" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -6511,8 +6769,11 @@
       <c r="E86" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -6528,8 +6789,11 @@
       <c r="E87" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>162</v>
       </c>
@@ -6545,8 +6809,11 @@
       <c r="E88" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>163</v>
       </c>
@@ -6562,8 +6829,11 @@
       <c r="E89" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -6579,8 +6849,11 @@
       <c r="E90" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -6596,8 +6869,11 @@
       <c r="E91" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -6613,8 +6889,11 @@
       <c r="E92" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -6630,8 +6909,11 @@
       <c r="E93" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -6647,8 +6929,11 @@
       <c r="E94" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -6664,8 +6949,11 @@
       <c r="E95" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -6681,8 +6969,11 @@
       <c r="E96" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -6698,8 +6989,11 @@
       <c r="E97" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -6715,8 +7009,11 @@
       <c r="E98" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -6732,8 +7029,11 @@
       <c r="E99" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -6749,8 +7049,11 @@
       <c r="E100" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>182</v>
       </c>
@@ -6766,8 +7069,11 @@
       <c r="E101" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -6783,8 +7089,11 @@
       <c r="E102" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -6800,8 +7109,11 @@
       <c r="E103" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>777</v>
       </c>
@@ -6817,8 +7129,11 @@
       <c r="E104" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -6834,8 +7149,11 @@
       <c r="E105" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -6851,8 +7169,11 @@
       <c r="E106" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -6868,8 +7189,11 @@
       <c r="E107" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -6885,8 +7209,11 @@
       <c r="E108" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -6902,8 +7229,11 @@
       <c r="E109" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -6919,8 +7249,11 @@
       <c r="E110" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>195</v>
       </c>
@@ -6936,8 +7269,11 @@
       <c r="E111" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -6953,8 +7289,11 @@
       <c r="E112" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>198</v>
       </c>
@@ -6970,8 +7309,11 @@
       <c r="E113" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>199</v>
       </c>
@@ -6987,8 +7329,11 @@
       <c r="E114" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>200</v>
       </c>
@@ -7004,8 +7349,11 @@
       <c r="E115" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -7021,8 +7369,11 @@
       <c r="E116" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>202</v>
       </c>
@@ -7038,8 +7389,11 @@
       <c r="E117" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -7055,8 +7409,11 @@
       <c r="E118" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -7072,8 +7429,11 @@
       <c r="E119" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -7089,8 +7449,11 @@
       <c r="E120" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>209</v>
       </c>
@@ -7106,8 +7469,11 @@
       <c r="E121" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>210</v>
       </c>
@@ -7123,8 +7489,11 @@
       <c r="E122" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>212</v>
       </c>
@@ -7140,8 +7509,11 @@
       <c r="E123" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>213</v>
       </c>
@@ -7157,8 +7529,11 @@
       <c r="E124" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>214</v>
       </c>
@@ -7174,8 +7549,11 @@
       <c r="E125" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -7191,8 +7569,11 @@
       <c r="E126" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>217</v>
       </c>
@@ -7208,8 +7589,11 @@
       <c r="E127" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -7225,8 +7609,11 @@
       <c r="E128" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -7242,8 +7629,11 @@
       <c r="E129" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -7259,8 +7649,11 @@
       <c r="E130" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>223</v>
       </c>
@@ -7276,8 +7669,11 @@
       <c r="E131" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>224</v>
       </c>
@@ -7293,8 +7689,11 @@
       <c r="E132" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>226</v>
       </c>
@@ -7310,8 +7709,11 @@
       <c r="E133" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>228</v>
       </c>
@@ -7327,8 +7729,11 @@
       <c r="E134" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>231</v>
       </c>
@@ -7344,8 +7749,11 @@
       <c r="E135" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>232</v>
       </c>
@@ -7361,8 +7769,11 @@
       <c r="E136" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>233</v>
       </c>
@@ -7378,8 +7789,11 @@
       <c r="E137" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>235</v>
       </c>
@@ -7395,8 +7809,11 @@
       <c r="E138" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>237</v>
       </c>
@@ -7412,8 +7829,11 @@
       <c r="E139" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>239</v>
       </c>
@@ -7429,8 +7849,11 @@
       <c r="E140" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>240</v>
       </c>
@@ -7446,8 +7869,11 @@
       <c r="E141" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>241</v>
       </c>
@@ -7463,8 +7889,11 @@
       <c r="E142" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>242</v>
       </c>
@@ -7480,8 +7909,11 @@
       <c r="E143" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>243</v>
       </c>
@@ -7497,8 +7929,11 @@
       <c r="E144" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>817</v>
       </c>
@@ -7514,8 +7949,11 @@
       <c r="E145" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>245</v>
       </c>
@@ -7531,8 +7969,11 @@
       <c r="E146" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>246</v>
       </c>
@@ -7548,8 +7989,11 @@
       <c r="E147" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>247</v>
       </c>
@@ -7565,8 +8009,11 @@
       <c r="E148" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>248</v>
       </c>
@@ -7582,8 +8029,11 @@
       <c r="E149" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>250</v>
       </c>
@@ -7599,8 +8049,11 @@
       <c r="E150" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>251</v>
       </c>
@@ -7616,8 +8069,11 @@
       <c r="E151" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>252</v>
       </c>
@@ -7633,8 +8089,11 @@
       <c r="E152" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>253</v>
       </c>
@@ -7650,8 +8109,11 @@
       <c r="E153" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>255</v>
       </c>
@@ -7667,8 +8129,11 @@
       <c r="E154" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>256</v>
       </c>
@@ -7684,8 +8149,11 @@
       <c r="E155" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>258</v>
       </c>
@@ -7701,8 +8169,11 @@
       <c r="E156" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>261</v>
       </c>
@@ -7718,8 +8189,11 @@
       <c r="E157" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -7735,8 +8209,11 @@
       <c r="E158" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>263</v>
       </c>
@@ -7752,8 +8229,11 @@
       <c r="E159" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -7769,8 +8249,11 @@
       <c r="E160" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>265</v>
       </c>
@@ -7786,8 +8269,11 @@
       <c r="E161" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -7803,8 +8289,11 @@
       <c r="E162" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>267</v>
       </c>
@@ -7820,8 +8309,11 @@
       <c r="E163" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>268</v>
       </c>
@@ -7837,8 +8329,11 @@
       <c r="E164" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>269</v>
       </c>
@@ -7854,8 +8349,11 @@
       <c r="E165" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>271</v>
       </c>
@@ -7871,8 +8369,11 @@
       <c r="E166" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -7888,8 +8389,11 @@
       <c r="E167" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>274</v>
       </c>
@@ -7905,8 +8409,11 @@
       <c r="E168" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>275</v>
       </c>
@@ -7922,8 +8429,11 @@
       <c r="E169" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>277</v>
       </c>
@@ -7939,8 +8449,11 @@
       <c r="E170" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>278</v>
       </c>
@@ -7956,8 +8469,11 @@
       <c r="E171" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>279</v>
       </c>
@@ -7973,8 +8489,11 @@
       <c r="E172" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>280</v>
       </c>
@@ -7990,8 +8509,11 @@
       <c r="E173" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>281</v>
       </c>
@@ -8007,8 +8529,11 @@
       <c r="E174" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>283</v>
       </c>
@@ -8024,8 +8549,11 @@
       <c r="E175" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>285</v>
       </c>
@@ -8041,8 +8569,11 @@
       <c r="E176" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -8058,8 +8589,11 @@
       <c r="E177" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>852</v>
       </c>
@@ -8075,8 +8609,11 @@
       <c r="E178" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>288</v>
       </c>
@@ -8092,8 +8629,11 @@
       <c r="E179" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -8109,8 +8649,11 @@
       <c r="E180" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -8126,8 +8669,11 @@
       <c r="E181" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>291</v>
       </c>
@@ -8143,8 +8689,11 @@
       <c r="E182" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>293</v>
       </c>
@@ -8160,8 +8709,11 @@
       <c r="E183" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>294</v>
       </c>
@@ -8177,8 +8729,11 @@
       <c r="E184" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>295</v>
       </c>
@@ -8194,8 +8749,11 @@
       <c r="E185" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>296</v>
       </c>
@@ -8211,8 +8769,11 @@
       <c r="E186" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>297</v>
       </c>
@@ -8228,8 +8789,11 @@
       <c r="E187" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>299</v>
       </c>
@@ -8245,8 +8809,11 @@
       <c r="E188" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -8262,8 +8829,11 @@
       <c r="E189" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>301</v>
       </c>
@@ -8279,8 +8849,11 @@
       <c r="E190" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>302</v>
       </c>
@@ -8296,8 +8869,11 @@
       <c r="E191" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>304</v>
       </c>
@@ -8313,8 +8889,11 @@
       <c r="E192" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>305</v>
       </c>
@@ -8330,8 +8909,11 @@
       <c r="E193" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>306</v>
       </c>
@@ -8347,8 +8929,11 @@
       <c r="E194" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -8364,8 +8949,11 @@
       <c r="E195" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>310</v>
       </c>
@@ -8381,8 +8969,11 @@
       <c r="E196" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>312</v>
       </c>
@@ -8398,8 +8989,11 @@
       <c r="E197" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>313</v>
       </c>
@@ -8415,8 +9009,11 @@
       <c r="E198" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>314</v>
       </c>
@@ -8432,8 +9029,11 @@
       <c r="E199" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>316</v>
       </c>
@@ -8449,8 +9049,11 @@
       <c r="E200" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>317</v>
       </c>
@@ -8466,8 +9069,11 @@
       <c r="E201" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>318</v>
       </c>
@@ -8483,8 +9089,11 @@
       <c r="E202" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>320</v>
       </c>
@@ -8500,8 +9109,11 @@
       <c r="E203" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>321</v>
       </c>
@@ -8517,8 +9129,11 @@
       <c r="E204" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>323</v>
       </c>
@@ -8534,8 +9149,11 @@
       <c r="E205" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>325</v>
       </c>
@@ -8551,8 +9169,11 @@
       <c r="E206" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>326</v>
       </c>
@@ -8568,8 +9189,11 @@
       <c r="E207" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>327</v>
       </c>
@@ -8585,8 +9209,11 @@
       <c r="E208" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>329</v>
       </c>
@@ -8602,8 +9229,11 @@
       <c r="E209" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>330</v>
       </c>
@@ -8619,8 +9249,11 @@
       <c r="E210" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>332</v>
       </c>
@@ -8636,8 +9269,11 @@
       <c r="E211" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>333</v>
       </c>
@@ -8653,8 +9289,11 @@
       <c r="E212" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>334</v>
       </c>
@@ -8670,8 +9309,11 @@
       <c r="E213" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>335</v>
       </c>
@@ -8687,8 +9329,11 @@
       <c r="E214" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>336</v>
       </c>
@@ -8704,8 +9349,11 @@
       <c r="E215" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>337</v>
       </c>
@@ -8721,8 +9369,11 @@
       <c r="E216" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>339</v>
       </c>
@@ -8738,8 +9389,11 @@
       <c r="E217" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -8755,8 +9409,11 @@
       <c r="E218" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>341</v>
       </c>
@@ -8772,8 +9429,11 @@
       <c r="E219" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>342</v>
       </c>
@@ -8789,8 +9449,11 @@
       <c r="E220" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>344</v>
       </c>
@@ -8806,8 +9469,11 @@
       <c r="E221" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>345</v>
       </c>
@@ -8823,8 +9489,11 @@
       <c r="E222" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>347</v>
       </c>
@@ -8840,8 +9509,11 @@
       <c r="E223" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>348</v>
       </c>
@@ -8857,8 +9529,11 @@
       <c r="E224" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>349</v>
       </c>
@@ -8874,8 +9549,11 @@
       <c r="E225" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>351</v>
       </c>
@@ -8891,8 +9569,11 @@
       <c r="E226" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>353</v>
       </c>
@@ -8908,8 +9589,11 @@
       <c r="E227" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>354</v>
       </c>
@@ -8925,8 +9609,11 @@
       <c r="E228" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>355</v>
       </c>
@@ -8942,8 +9629,11 @@
       <c r="E229" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>356</v>
       </c>
@@ -8959,8 +9649,11 @@
       <c r="E230" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>357</v>
       </c>
@@ -8976,8 +9669,11 @@
       <c r="E231" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>358</v>
       </c>
@@ -8993,8 +9689,11 @@
       <c r="E232" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>360</v>
       </c>
@@ -9010,8 +9709,11 @@
       <c r="E233" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>361</v>
       </c>
@@ -9027,8 +9729,11 @@
       <c r="E234" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>362</v>
       </c>
@@ -9044,8 +9749,11 @@
       <c r="E235" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>363</v>
       </c>
@@ -9061,8 +9769,11 @@
       <c r="E236" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>364</v>
       </c>
@@ -9078,8 +9789,11 @@
       <c r="E237" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -9095,8 +9809,11 @@
       <c r="E238" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>366</v>
       </c>
@@ -9112,8 +9829,11 @@
       <c r="E239" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>367</v>
       </c>
@@ -9129,8 +9849,11 @@
       <c r="E240" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>368</v>
       </c>
@@ -9146,8 +9869,11 @@
       <c r="E241" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>369</v>
       </c>
@@ -9163,8 +9889,11 @@
       <c r="E242" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>370</v>
       </c>
@@ -9180,8 +9909,11 @@
       <c r="E243" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>371</v>
       </c>
@@ -9197,8 +9929,11 @@
       <c r="E244" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -9214,8 +9949,11 @@
       <c r="E245" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>374</v>
       </c>
@@ -9231,8 +9969,11 @@
       <c r="E246" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>375</v>
       </c>
@@ -9248,8 +9989,11 @@
       <c r="E247" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>376</v>
       </c>
@@ -9265,8 +10009,11 @@
       <c r="E248" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>377</v>
       </c>
@@ -9282,8 +10029,11 @@
       <c r="E249" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>378</v>
       </c>
@@ -9299,8 +10049,11 @@
       <c r="E250" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>379</v>
       </c>
@@ -9316,8 +10069,11 @@
       <c r="E251" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>381</v>
       </c>
@@ -9333,8 +10089,11 @@
       <c r="E252" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>384</v>
       </c>
@@ -9350,8 +10109,11 @@
       <c r="E253" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>385</v>
       </c>
@@ -9367,8 +10129,11 @@
       <c r="E254" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>386</v>
       </c>
@@ -9384,8 +10149,11 @@
       <c r="E255" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>388</v>
       </c>
@@ -9401,8 +10169,11 @@
       <c r="E256" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>930</v>
       </c>
@@ -9418,8 +10189,11 @@
       <c r="E257" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>390</v>
       </c>
@@ -9435,8 +10209,11 @@
       <c r="E258" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>391</v>
       </c>
@@ -9452,8 +10229,11 @@
       <c r="E259" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>392</v>
       </c>
@@ -9469,8 +10249,11 @@
       <c r="E260" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>393</v>
       </c>
@@ -9486,8 +10269,11 @@
       <c r="E261" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>395</v>
       </c>
@@ -9503,8 +10289,11 @@
       <c r="E262" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>396</v>
       </c>
@@ -9520,8 +10309,11 @@
       <c r="E263" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>397</v>
       </c>
@@ -9537,8 +10329,11 @@
       <c r="E264" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>398</v>
       </c>
@@ -9554,8 +10349,11 @@
       <c r="E265" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>399</v>
       </c>
@@ -9571,8 +10369,11 @@
       <c r="E266" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>401</v>
       </c>
@@ -9588,8 +10389,11 @@
       <c r="E267" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>402</v>
       </c>
@@ -9605,8 +10409,11 @@
       <c r="E268" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>404</v>
       </c>
@@ -9622,8 +10429,11 @@
       <c r="E269" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>406</v>
       </c>
@@ -9639,8 +10449,11 @@
       <c r="E270" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>408</v>
       </c>
@@ -9656,8 +10469,11 @@
       <c r="E271" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>409</v>
       </c>
@@ -9673,8 +10489,11 @@
       <c r="E272" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>410</v>
       </c>
@@ -9690,8 +10509,11 @@
       <c r="E273" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>412</v>
       </c>
@@ -9707,8 +10529,11 @@
       <c r="E274" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>413</v>
       </c>
@@ -9724,8 +10549,11 @@
       <c r="E275" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>414</v>
       </c>
@@ -9741,8 +10569,11 @@
       <c r="E276" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>415</v>
       </c>
@@ -9758,8 +10589,11 @@
       <c r="E277" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>417</v>
       </c>
@@ -9775,8 +10609,11 @@
       <c r="E278" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>418</v>
       </c>
@@ -9792,8 +10629,11 @@
       <c r="E279" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>419</v>
       </c>
@@ -9809,8 +10649,11 @@
       <c r="E280" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>420</v>
       </c>
@@ -9826,8 +10669,11 @@
       <c r="E281" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>421</v>
       </c>
@@ -9843,8 +10689,11 @@
       <c r="E282" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>422</v>
       </c>
@@ -9860,8 +10709,11 @@
       <c r="E283" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>423</v>
       </c>
@@ -9877,8 +10729,11 @@
       <c r="E284" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>424</v>
       </c>
@@ -9894,8 +10749,11 @@
       <c r="E285" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>425</v>
       </c>
@@ -9911,8 +10769,11 @@
       <c r="E286" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>428</v>
       </c>
@@ -9928,8 +10789,11 @@
       <c r="E287" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>429</v>
       </c>
@@ -9945,8 +10809,11 @@
       <c r="E288" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>430</v>
       </c>
@@ -9962,8 +10829,11 @@
       <c r="E289" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>431</v>
       </c>
@@ -9979,8 +10849,11 @@
       <c r="E290" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>432</v>
       </c>
@@ -9996,8 +10869,11 @@
       <c r="E291" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>433</v>
       </c>
@@ -10013,8 +10889,11 @@
       <c r="E292" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>436</v>
       </c>
@@ -10030,8 +10909,11 @@
       <c r="E293" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>438</v>
       </c>
@@ -10047,8 +10929,11 @@
       <c r="E294" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>440</v>
       </c>
@@ -10064,8 +10949,11 @@
       <c r="E295" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>441</v>
       </c>
@@ -10081,8 +10969,11 @@
       <c r="E296" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>442</v>
       </c>
@@ -10098,8 +10989,11 @@
       <c r="E297" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>443</v>
       </c>
@@ -10115,8 +11009,11 @@
       <c r="E298" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>446</v>
       </c>
@@ -10132,8 +11029,11 @@
       <c r="E299" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>447</v>
       </c>
@@ -10149,8 +11049,11 @@
       <c r="E300" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>448</v>
       </c>
@@ -10166,8 +11069,11 @@
       <c r="E301" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>449</v>
       </c>
@@ -10183,8 +11089,11 @@
       <c r="E302" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>450</v>
       </c>
@@ -10200,8 +11109,11 @@
       <c r="E303" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>452</v>
       </c>
@@ -10217,8 +11129,11 @@
       <c r="E304" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>453</v>
       </c>
@@ -10234,8 +11149,11 @@
       <c r="E305" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>454</v>
       </c>
@@ -10251,8 +11169,11 @@
       <c r="E306" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>455</v>
       </c>
@@ -10268,8 +11189,11 @@
       <c r="E307" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>982</v>
       </c>
@@ -10285,8 +11209,11 @@
       <c r="E308" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>457</v>
       </c>
@@ -10302,8 +11229,11 @@
       <c r="E309" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>458</v>
       </c>
@@ -10319,8 +11249,11 @@
       <c r="E310" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>460</v>
       </c>
@@ -10336,8 +11269,11 @@
       <c r="E311" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>461</v>
       </c>
@@ -10353,8 +11289,11 @@
       <c r="E312" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>462</v>
       </c>
@@ -10370,8 +11309,11 @@
       <c r="E313" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>463</v>
       </c>
@@ -10387,8 +11329,11 @@
       <c r="E314" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>464</v>
       </c>
@@ -10404,8 +11349,11 @@
       <c r="E315" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>465</v>
       </c>
@@ -10421,8 +11369,11 @@
       <c r="E316" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>466</v>
       </c>
@@ -10438,8 +11389,11 @@
       <c r="E317" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>467</v>
       </c>
@@ -10455,8 +11409,11 @@
       <c r="E318" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>468</v>
       </c>
@@ -10472,8 +11429,11 @@
       <c r="E319" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>469</v>
       </c>
@@ -10489,8 +11449,11 @@
       <c r="E320" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>470</v>
       </c>
@@ -10506,8 +11469,11 @@
       <c r="E321" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>471</v>
       </c>
@@ -10523,8 +11489,11 @@
       <c r="E322" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>473</v>
       </c>
@@ -10540,8 +11509,11 @@
       <c r="E323" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>474</v>
       </c>
@@ -10557,8 +11529,11 @@
       <c r="E324" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>476</v>
       </c>
@@ -10574,8 +11549,11 @@
       <c r="E325" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>477</v>
       </c>
@@ -10591,8 +11569,11 @@
       <c r="E326" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>478</v>
       </c>
@@ -10608,8 +11589,11 @@
       <c r="E327" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>479</v>
       </c>
@@ -10625,8 +11609,11 @@
       <c r="E328" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>480</v>
       </c>
@@ -10642,8 +11629,11 @@
       <c r="E329" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>481</v>
       </c>
@@ -10659,8 +11649,11 @@
       <c r="E330" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>482</v>
       </c>
@@ -10676,8 +11669,11 @@
       <c r="E331" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>483</v>
       </c>
@@ -10693,8 +11689,11 @@
       <c r="E332" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1008</v>
       </c>
@@ -10710,8 +11709,11 @@
       <c r="E333" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>485</v>
       </c>
@@ -10727,8 +11729,11 @@
       <c r="E334" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>487</v>
       </c>
@@ -10744,8 +11749,11 @@
       <c r="E335" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>488</v>
       </c>
@@ -10761,8 +11769,11 @@
       <c r="E336" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>489</v>
       </c>
@@ -10778,8 +11789,11 @@
       <c r="E337" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>491</v>
       </c>
@@ -10795,8 +11809,11 @@
       <c r="E338" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>492</v>
       </c>
@@ -10812,8 +11829,11 @@
       <c r="E339" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>493</v>
       </c>
@@ -10829,8 +11849,11 @@
       <c r="E340" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>495</v>
       </c>
@@ -10846,8 +11869,11 @@
       <c r="E341" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>496</v>
       </c>
@@ -10863,8 +11889,11 @@
       <c r="E342" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>497</v>
       </c>
@@ -10880,8 +11909,11 @@
       <c r="E343" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>498</v>
       </c>
@@ -10897,8 +11929,11 @@
       <c r="E344" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>500</v>
       </c>
@@ -10914,8 +11949,11 @@
       <c r="E345" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>501</v>
       </c>
@@ -10931,8 +11969,11 @@
       <c r="E346" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>502</v>
       </c>
@@ -10948,8 +11989,11 @@
       <c r="E347" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>503</v>
       </c>
@@ -10965,8 +12009,11 @@
       <c r="E348" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -10982,8 +12029,11 @@
       <c r="E349" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>505</v>
       </c>
@@ -10999,8 +12049,11 @@
       <c r="E350" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>507</v>
       </c>
@@ -11016,8 +12069,11 @@
       <c r="E351" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>509</v>
       </c>
@@ -11033,8 +12089,11 @@
       <c r="E352" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>510</v>
       </c>
@@ -11050,8 +12109,11 @@
       <c r="E353" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>511</v>
       </c>
@@ -11067,8 +12129,11 @@
       <c r="E354" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>513</v>
       </c>
@@ -11084,8 +12149,11 @@
       <c r="E355" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>514</v>
       </c>
@@ -11101,8 +12169,11 @@
       <c r="E356" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>515</v>
       </c>
@@ -11118,8 +12189,11 @@
       <c r="E357" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>516</v>
       </c>
@@ -11135,8 +12209,11 @@
       <c r="E358" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>518</v>
       </c>
@@ -11152,8 +12229,11 @@
       <c r="E359" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>520</v>
       </c>
@@ -11169,8 +12249,11 @@
       <c r="E360" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>521</v>
       </c>
@@ -11186,8 +12269,11 @@
       <c r="E361" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>522</v>
       </c>
@@ -11203,8 +12289,11 @@
       <c r="E362" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1039</v>
       </c>
@@ -11220,8 +12309,11 @@
       <c r="E363" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>523</v>
       </c>
@@ -11237,8 +12329,11 @@
       <c r="E364" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>524</v>
       </c>
@@ -11254,8 +12349,11 @@
       <c r="E365" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>525</v>
       </c>
@@ -11271,8 +12369,11 @@
       <c r="E366" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>526</v>
       </c>
@@ -11288,8 +12389,11 @@
       <c r="E367" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1044</v>
       </c>
@@ -11305,8 +12409,11 @@
       <c r="E368" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>527</v>
       </c>
@@ -11322,8 +12429,11 @@
       <c r="E369" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>528</v>
       </c>
@@ -11339,8 +12449,11 @@
       <c r="E370" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>529</v>
       </c>
@@ -11356,8 +12469,11 @@
       <c r="E371" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1049</v>
       </c>
@@ -11373,8 +12489,11 @@
       <c r="E372" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>530</v>
       </c>
@@ -11390,8 +12509,11 @@
       <c r="E373" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>532</v>
       </c>
@@ -11407,8 +12529,11 @@
       <c r="E374" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>533</v>
       </c>
@@ -11424,8 +12549,11 @@
       <c r="E375" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>535</v>
       </c>
@@ -11441,8 +12569,11 @@
       <c r="E376" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>536</v>
       </c>
@@ -11458,8 +12589,11 @@
       <c r="E377" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>537</v>
       </c>
@@ -11475,8 +12609,11 @@
       <c r="E378" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1058</v>
       </c>
@@ -11492,8 +12629,11 @@
       <c r="E379" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>539</v>
       </c>
@@ -11509,8 +12649,11 @@
       <c r="E380" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>540</v>
       </c>
@@ -11526,8 +12669,11 @@
       <c r="E381" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>541</v>
       </c>
@@ -11543,8 +12689,11 @@
       <c r="E382" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>542</v>
       </c>
@@ -11560,8 +12709,11 @@
       <c r="E383" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>543</v>
       </c>
@@ -11577,8 +12729,11 @@
       <c r="E384" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>544</v>
       </c>
@@ -11594,8 +12749,11 @@
       <c r="E385" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>546</v>
       </c>
@@ -11611,8 +12769,11 @@
       <c r="E386" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>547</v>
       </c>
@@ -11628,8 +12789,11 @@
       <c r="E387" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>548</v>
       </c>
@@ -11645,8 +12809,11 @@
       <c r="E388" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>549</v>
       </c>
@@ -11662,8 +12829,11 @@
       <c r="E389" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>550</v>
       </c>
@@ -11679,8 +12849,11 @@
       <c r="E390" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>551</v>
       </c>
@@ -11696,8 +12869,11 @@
       <c r="E391" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>552</v>
       </c>
@@ -11713,8 +12889,11 @@
       <c r="E392" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1074</v>
       </c>
@@ -11730,8 +12909,11 @@
       <c r="E393" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>553</v>
       </c>
@@ -11747,8 +12929,11 @@
       <c r="E394" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>554</v>
       </c>
@@ -11764,8 +12949,11 @@
       <c r="E395" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1078</v>
       </c>
@@ -11781,8 +12969,11 @@
       <c r="E396" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>555</v>
       </c>
@@ -11798,8 +12989,11 @@
       <c r="E397" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>556</v>
       </c>
@@ -11815,8 +13009,11 @@
       <c r="E398" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>558</v>
       </c>
@@ -11832,8 +13029,11 @@
       <c r="E399" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>559</v>
       </c>
@@ -11849,8 +13049,11 @@
       <c r="E400" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>560</v>
       </c>
@@ -11866,8 +13069,11 @@
       <c r="E401" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>562</v>
       </c>
@@ -11883,8 +13089,11 @@
       <c r="E402" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>564</v>
       </c>
@@ -11900,8 +13109,11 @@
       <c r="E403" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>565</v>
       </c>
@@ -11917,8 +13129,11 @@
       <c r="E404" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>566</v>
       </c>
@@ -11934,8 +13149,11 @@
       <c r="E405" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>567</v>
       </c>
@@ -11951,8 +13169,11 @@
       <c r="E406" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>568</v>
       </c>
@@ -11968,8 +13189,11 @@
       <c r="E407" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>569</v>
       </c>
@@ -11985,8 +13209,11 @@
       <c r="E408" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>571</v>
       </c>
@@ -12002,8 +13229,11 @@
       <c r="E409" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>572</v>
       </c>
@@ -12019,8 +13249,11 @@
       <c r="E410" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>573</v>
       </c>
@@ -12036,8 +13269,11 @@
       <c r="E411" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1094</v>
       </c>
@@ -12053,8 +13289,11 @@
       <c r="E412" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>574</v>
       </c>
@@ -12070,8 +13309,11 @@
       <c r="E413" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1097</v>
       </c>
@@ -12087,8 +13329,11 @@
       <c r="E414" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>576</v>
       </c>
@@ -12104,8 +13349,11 @@
       <c r="E415" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>578</v>
       </c>
@@ -12121,8 +13369,11 @@
       <c r="E416" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>580</v>
       </c>
@@ -12138,8 +13389,11 @@
       <c r="E417" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>582</v>
       </c>
@@ -12155,8 +13409,11 @@
       <c r="E418" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>584</v>
       </c>
@@ -12172,8 +13429,11 @@
       <c r="E419" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>585</v>
       </c>
@@ -12189,8 +13449,11 @@
       <c r="E420" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>586</v>
       </c>
@@ -12206,8 +13469,11 @@
       <c r="E421" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1106</v>
       </c>
@@ -12223,8 +13489,11 @@
       <c r="E422" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>587</v>
       </c>
@@ -12240,8 +13509,11 @@
       <c r="E423" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>588</v>
       </c>
@@ -12257,8 +13529,11 @@
       <c r="E424" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>589</v>
       </c>
@@ -12274,8 +13549,11 @@
       <c r="E425" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>590</v>
       </c>
@@ -12291,8 +13569,11 @@
       <c r="E426" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>591</v>
       </c>
@@ -12308,8 +13589,11 @@
       <c r="E427" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>592</v>
       </c>
@@ -12325,8 +13609,11 @@
       <c r="E428" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>594</v>
       </c>
@@ -12342,8 +13629,11 @@
       <c r="E429" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>595</v>
       </c>
@@ -12359,8 +13649,11 @@
       <c r="E430" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>596</v>
       </c>
@@ -12376,8 +13669,11 @@
       <c r="E431" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>598</v>
       </c>
@@ -12393,8 +13689,11 @@
       <c r="E432" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>599</v>
       </c>
@@ -12410,8 +13709,11 @@
       <c r="E433" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>600</v>
       </c>
@@ -12427,8 +13729,11 @@
       <c r="E434" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>601</v>
       </c>
@@ -12444,8 +13749,11 @@
       <c r="E435" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>603</v>
       </c>
@@ -12461,8 +13769,11 @@
       <c r="E436" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1121</v>
       </c>
@@ -12478,8 +13789,11 @@
       <c r="E437" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>605</v>
       </c>
@@ -12495,8 +13809,11 @@
       <c r="E438" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>606</v>
       </c>
@@ -12512,8 +13829,11 @@
       <c r="E439" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>607</v>
       </c>
@@ -12529,8 +13849,11 @@
       <c r="E440" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>608</v>
       </c>
@@ -12546,8 +13869,11 @@
       <c r="E441" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>611</v>
       </c>
@@ -12563,8 +13889,11 @@
       <c r="E442" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>612</v>
       </c>
@@ -12580,8 +13909,11 @@
       <c r="E443" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>614</v>
       </c>
@@ -12597,8 +13929,11 @@
       <c r="E444" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>616</v>
       </c>
@@ -12614,8 +13949,11 @@
       <c r="E445" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>617</v>
       </c>
@@ -12631,8 +13969,11 @@
       <c r="E446" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>618</v>
       </c>
@@ -12648,8 +13989,11 @@
       <c r="E447" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>619</v>
       </c>
@@ -12665,8 +14009,11 @@
       <c r="E448" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>620</v>
       </c>
@@ -12682,8 +14029,11 @@
       <c r="E449" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>621</v>
       </c>
@@ -12699,8 +14049,11 @@
       <c r="E450" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>623</v>
       </c>
@@ -12716,8 +14069,11 @@
       <c r="E451" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>624</v>
       </c>
@@ -12733,8 +14089,11 @@
       <c r="E452" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>626</v>
       </c>
@@ -12750,8 +14109,11 @@
       <c r="E453" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>628</v>
       </c>
@@ -12767,8 +14129,11 @@
       <c r="E454" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>629</v>
       </c>
@@ -12784,8 +14149,11 @@
       <c r="E455" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>630</v>
       </c>
@@ -12801,8 +14169,11 @@
       <c r="E456" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>632</v>
       </c>
@@ -12818,8 +14189,11 @@
       <c r="E457" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>633</v>
       </c>
@@ -12835,8 +14209,11 @@
       <c r="E458" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>634</v>
       </c>
@@ -12852,8 +14229,11 @@
       <c r="E459" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>635</v>
       </c>
@@ -12869,8 +14249,11 @@
       <c r="E460" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>636</v>
       </c>
@@ -12886,8 +14269,11 @@
       <c r="E461" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>637</v>
       </c>
@@ -12903,8 +14289,11 @@
       <c r="E462" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>638</v>
       </c>
@@ -12920,8 +14309,11 @@
       <c r="E463" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>640</v>
       </c>
@@ -12937,8 +14329,11 @@
       <c r="E464" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>641</v>
       </c>
@@ -12954,8 +14349,11 @@
       <c r="E465" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>642</v>
       </c>
@@ -12971,8 +14369,11 @@
       <c r="E466" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>643</v>
       </c>
@@ -12988,8 +14389,11 @@
       <c r="E467" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>644</v>
       </c>
@@ -13005,8 +14409,11 @@
       <c r="E468" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>645</v>
       </c>
@@ -13022,8 +14429,11 @@
       <c r="E469" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>646</v>
       </c>
@@ -13039,8 +14449,11 @@
       <c r="E470" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>647</v>
       </c>
@@ -13056,8 +14469,11 @@
       <c r="E471" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>648</v>
       </c>
@@ -13073,8 +14489,11 @@
       <c r="E472" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>650</v>
       </c>
@@ -13090,8 +14509,11 @@
       <c r="E473" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>651</v>
       </c>
@@ -13107,8 +14529,11 @@
       <c r="E474" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>652</v>
       </c>
@@ -13124,8 +14549,11 @@
       <c r="E475" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>653</v>
       </c>
@@ -13141,8 +14569,11 @@
       <c r="E476" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>654</v>
       </c>
@@ -13158,8 +14589,11 @@
       <c r="E477" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>656</v>
       </c>
@@ -13175,8 +14609,11 @@
       <c r="E478" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>657</v>
       </c>
@@ -13192,8 +14629,11 @@
       <c r="E479" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>658</v>
       </c>
@@ -13209,8 +14649,11 @@
       <c r="E480" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>660</v>
       </c>
@@ -13226,8 +14669,11 @@
       <c r="E481" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>661</v>
       </c>
@@ -13243,8 +14689,11 @@
       <c r="E482" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>662</v>
       </c>
@@ -13260,8 +14709,11 @@
       <c r="E483" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>663</v>
       </c>
@@ -13276,6 +14728,9 @@
       </c>
       <c r="E484" t="s">
         <v>1563</v>
+      </c>
+      <c r="F484">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFF28A-3C9E-4CDE-9FC7-20DBA22DE607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CC333-1137-4B0C-8968-6954EA9CA9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1567">
   <si>
     <t>title</t>
   </si>
@@ -4728,6 +4728,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Метелев Станислав Алексеевич</t>
+  </si>
+  <si>
+    <t>Оператор АЛУ</t>
   </si>
 </sst>
 </file>
@@ -4763,8 +4769,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5045,13 +5052,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F484"/>
+  <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F484"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="C487" sqref="C487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14731,6 +14744,26 @@
       </c>
       <c r="F484">
         <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C485" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485" s="1">
+        <v>37715</v>
+      </c>
+      <c r="E485">
+        <v>655</v>
+      </c>
+      <c r="F485">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CC333-1137-4B0C-8968-6954EA9CA9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEADAB-B423-4B97-ADFE-2AEE4A8620CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="1568">
   <si>
     <t>title</t>
   </si>
@@ -4734,6 +4734,9 @@
   </si>
   <si>
     <t>Оператор АЛУ</t>
+  </si>
+  <si>
+    <t>Тур Степан Александрович</t>
   </si>
 </sst>
 </file>
@@ -5052,10 +5055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F485"/>
+  <dimension ref="A1:F486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="C487" sqref="C487"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="N485" sqref="N485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14766,6 +14769,26 @@
         <v>484</v>
       </c>
     </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B486" t="s">
+        <v>62</v>
+      </c>
+      <c r="C486" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" s="1">
+        <v>33239</v>
+      </c>
+      <c r="E486">
+        <v>111</v>
+      </c>
+      <c r="F486">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEADAB-B423-4B97-ADFE-2AEE4A8620CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D2D7C-12FC-4370-B241-36B58B4D18ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5057,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="N485" sqref="N485"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
